--- a/trend_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/trend_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1071,6 +1071,93 @@
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.016247932980324</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1.98505434782609</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-3.27777921451735</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.823361323753953</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.81615219380246</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1789685</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5646155</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/trend_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.231216363225238</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>0.358</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0351601356107804</v>
+        <v>0.0060420140012664</v>
       </c>
       <c r="L2" t="n">
         <v>-0.105583861121045</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0082650296394508</v>
+        <v>0.0622805490331804</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.821266930385599</v>
+        <v>1.68771340817499</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102.07</v>
+        <v>104.76</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.987663190787047</v>
+        <v>-1.45219991245158</v>
       </c>
       <c r="L3" t="n">
         <v>-17.3096785326581</v>
       </c>
       <c r="M3" t="n">
-        <v>9.55444800388497</v>
+        <v>7.46439356934571</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.967633183880716</v>
+        <v>-1.38621602944977</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -759,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.298</v>
+        <v>3.69</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.07125531011895769</v>
+        <v>-0.116188715612467</v>
       </c>
       <c r="L4" t="n">
         <v>-0.857263892910538</v>
       </c>
       <c r="M4" t="n">
-        <v>0.337462617624088</v>
+        <v>0.300872933065808</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.16056125284893</v>
+        <v>-3.14874568055467</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.015911563693245</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4075</v>
+        <v>0.3905</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0406416008614501</v>
+        <v>-0.0177257347915243</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0833794866046703</v>
+        <v>-0.0600818501232573</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0124529762584608</v>
+        <v>-5.93300868559543e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>-9.97339898440493</v>
+        <v>-4.53924066364258</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.053702318165127</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>107</v>
+        <v>105.38</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.52476958525346</v>
+        <v>-1.24495446660885</v>
       </c>
       <c r="L6" t="n">
-        <v>-6.26785524916979</v>
+        <v>-3.93742015688464</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.865736852505346</v>
+        <v>1.11629870156652</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.35959774322753</v>
+        <v>-1.18139539439063</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.015911563693245</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.935</v>
+        <v>3.8845</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.437159583694709</v>
+        <v>-0.174418245804006</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.635354108856908</v>
+        <v>-0.488176992479633</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.141446165214444</v>
+        <v>0.0357109221588123</v>
       </c>
       <c r="N7" t="n">
-        <v>-11.1095192806788</v>
+        <v>-4.49010801400454</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1095,31 +1095,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.016247932980324</v>
+        <v>0.008003077576582</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>109.3</v>
+        <v>0.427</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.98505434782609</v>
+        <v>-0.0260751757706868</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.27777921451735</v>
+        <v>-0.0426278832272651</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.823361323753953</v>
+        <v>-0.0104270045003167</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.81615219380246</v>
+        <v>-6.10659854114446</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1158,6 +1158,180 @@
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.012885200022937</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>109</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1.77118912080961</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-2.66500611382445</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.595554306388536</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.62494414753176</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1789685</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5646155</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.010744369559839</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.235</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.208204397394137</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.39308029610764</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.0916150120866006</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-4.91627856892885</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1789685</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5646155</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/trend_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t>site name</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
@@ -594,19 +591,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.358</v>
+        <v>0.372</v>
       </c>
       <c r="K2">
-        <v>0.0060420140012664</v>
+        <v>0.0158213317628836</v>
       </c>
       <c r="L2">
-        <v>-0.105583861121045</v>
+        <v>-0.0607657798896477</v>
       </c>
       <c r="M2">
-        <v>0.0622805490331804</v>
+        <v>0.0670790867698382</v>
       </c>
       <c r="N2">
-        <v>1.68771340817499</v>
+        <v>4.25304617281817</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -621,16 +618,16 @@
         <v>5646155</v>
       </c>
       <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -650,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="F3">
-        <v>0.40324797025367</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -665,22 +662,22 @@
         <v>104.76</v>
       </c>
       <c r="K3">
-        <v>-1.45219991245158</v>
+        <v>4.13922887399019</v>
       </c>
       <c r="L3">
-        <v>-17.3096785326581</v>
+        <v>-5.60814367686172</v>
       </c>
       <c r="M3">
         <v>7.46439356934571</v>
       </c>
       <c r="N3">
-        <v>-1.38621602944977</v>
+        <v>3.9511539461533</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3">
         <v>1789685</v>
@@ -689,16 +686,16 @@
         <v>5646155</v>
       </c>
       <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>36</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -718,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="F4">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -730,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.69</v>
+        <v>3.298</v>
       </c>
       <c r="K4">
-        <v>-0.116188715612467</v>
+        <v>-0.0136034328891005</v>
       </c>
       <c r="L4">
-        <v>-0.857263892910538</v>
+        <v>-0.9445284960931</v>
       </c>
       <c r="M4">
         <v>0.300872933065808</v>
       </c>
       <c r="N4">
-        <v>-3.14874568055467</v>
+        <v>-0.412475224047922</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -757,16 +754,16 @@
         <v>5646155</v>
       </c>
       <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>36</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>37</v>
-      </c>
-      <c r="V4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -786,7 +783,7 @@
         <v>27</v>
       </c>
       <c r="F5">
-        <v>0.07620314197837499</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -798,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3905</v>
+        <v>0.381</v>
       </c>
       <c r="K5">
-        <v>-0.0177257347915243</v>
+        <v>-0.00643976039783</v>
       </c>
       <c r="L5">
-        <v>-0.0600818501232573</v>
+        <v>-0.022426463668555</v>
       </c>
       <c r="M5">
-        <v>-5.93300868559543E-05</v>
+        <v>0.0040950650120543</v>
       </c>
       <c r="N5">
-        <v>-4.53924066364258</v>
+        <v>-1.6902258262021</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -825,16 +822,16 @@
         <v>5646155</v>
       </c>
       <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
         <v>35</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>36</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>37</v>
-      </c>
-      <c r="V5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,7 +851,7 @@
         <v>27</v>
       </c>
       <c r="F6">
-        <v>0.185546684761349</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -869,22 +866,22 @@
         <v>105.38</v>
       </c>
       <c r="K6">
-        <v>-1.24495446660885</v>
+        <v>0.0397250755287008</v>
       </c>
       <c r="L6">
-        <v>-3.93742015688464</v>
+        <v>-1.43302848747508</v>
       </c>
       <c r="M6">
-        <v>1.11629870156652</v>
+        <v>1.9102601008161</v>
       </c>
       <c r="N6">
-        <v>-1.18139539439063</v>
+        <v>0.0376969781065675</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6">
         <v>1789685</v>
@@ -893,16 +890,16 @@
         <v>5646155</v>
       </c>
       <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
         <v>35</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>36</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>37</v>
-      </c>
-      <c r="V6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -922,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>0.105248850027669</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -934,25 +931,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.8845</v>
+        <v>3.494</v>
       </c>
       <c r="K7">
-        <v>-0.174418245804006</v>
+        <v>-0.0605386740331491</v>
       </c>
       <c r="L7">
-        <v>-0.488176992479633</v>
+        <v>-0.239657445665672</v>
       </c>
       <c r="M7">
-        <v>0.0357109221588123</v>
+        <v>0.03931671569887</v>
       </c>
       <c r="N7">
-        <v>-4.49010801400454</v>
+        <v>-1.73264665235115</v>
       </c>
       <c r="O7" t="s">
         <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7">
         <v>1789685</v>
@@ -961,16 +958,16 @@
         <v>5646155</v>
       </c>
       <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
         <v>35</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>36</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>37</v>
-      </c>
-      <c r="V7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -990,7 +987,7 @@
         <v>27</v>
       </c>
       <c r="F8">
-        <v>0.008003077576582</v>
+        <v>0.006673787963422</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1002,25 +999,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="K8">
-        <v>-0.0260751757706868</v>
+        <v>-0.0215520186335404</v>
       </c>
       <c r="L8">
-        <v>-0.0426278832272651</v>
+        <v>-0.0373837929404309</v>
       </c>
       <c r="M8">
-        <v>-0.0104270045003167</v>
+        <v>-0.009211887785489</v>
       </c>
       <c r="N8">
-        <v>-6.10659854114446</v>
+        <v>-5.07106320789186</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8">
         <v>1789685</v>
@@ -1029,16 +1026,16 @@
         <v>5646155</v>
       </c>
       <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
         <v>35</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>36</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>37</v>
-      </c>
-      <c r="V8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1058,37 +1055,37 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>0.012885200022937</v>
+        <v>0.03001914545479</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9">
-        <v>-1.77118912080961</v>
+        <v>-1.24495446660885</v>
       </c>
       <c r="L9">
-        <v>-2.66500611382445</v>
+        <v>-2.20790150226013</v>
       </c>
       <c r="M9">
-        <v>-0.595554306388536</v>
+        <v>-0.202413949670737</v>
       </c>
       <c r="N9">
-        <v>-1.62494414753176</v>
+        <v>-1.15273561723042</v>
       </c>
       <c r="O9" t="s">
         <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q9">
         <v>1789685</v>
@@ -1097,16 +1094,16 @@
         <v>5646155</v>
       </c>
       <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
         <v>35</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>36</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>37</v>
-      </c>
-      <c r="V9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1126,7 +1123,7 @@
         <v>27</v>
       </c>
       <c r="F10">
-        <v>0.010744369559839</v>
+        <v>0.0050362175766399</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1138,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.235</v>
+        <v>4.18</v>
       </c>
       <c r="K10">
         <v>-0.208204397394137</v>
       </c>
       <c r="L10">
-        <v>-0.39308029610764</v>
+        <v>-0.343810992999976</v>
       </c>
       <c r="M10">
-        <v>-0.0916150120866006</v>
+        <v>-0.117165453691081</v>
       </c>
       <c r="N10">
-        <v>-4.91627856892885</v>
+        <v>-4.98096644483581</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q10">
         <v>1789685</v>
@@ -1165,16 +1162,16 @@
         <v>5646155</v>
       </c>
       <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
         <v>35</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>36</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>37</v>
-      </c>
-      <c r="V10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
